--- a/testtt.xlsx
+++ b/testtt.xlsx
@@ -8,7 +8,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="ABS">Sheet1!$A$17</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -283,20 +285,75 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TESSS</a:t>
+            </a:r>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </title>
     <plotArea>
-      <layout>
-        <manualLayout>
-          <layoutTarget val="inner"/>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.1034420384951881"/>
-          <y val="0.1948611111111111"/>
-          <w val="0.8965579615048119"/>
-          <h val="0.7208876494604841"/>
-        </manualLayout>
-      </layout>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
@@ -304,11 +361,65 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$15</f>
+              <strCache>
+                <ptCount val="1"/>
+              </strCache>
+            </strRef>
+          </tx>
           <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </txPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
             <numRef>
               <f>'Sheet1'!$A$10:$E$10</f>
@@ -316,7 +427,11 @@
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$A$11</f>
+              <f>Sheet1!$A$16</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -335,7 +450,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$11</f>
+              <f>'Sheet1'!$A$11</f>
             </numRef>
           </val>
         </ser>
@@ -354,7 +469,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$11</f>
+              <f>'Sheet1'!$B$11</f>
             </numRef>
           </val>
         </ser>
@@ -373,7 +488,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$D$11</f>
+              <f>'Sheet1'!$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -392,20 +507,39 @@
           </cat>
           <val>
             <numRef>
+              <f>'Sheet1'!$D$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$10:$E$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
               <f>'Sheet1'!$E$11</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
           <showLegendKey val="0"/>
-          <showVal val="0"/>
+          <showVal val="1"/>
           <showCatName val="0"/>
           <showSerName val="0"/>
           <showPercent val="0"/>
           <showBubbleSize val="0"/>
         </dLbls>
-        <gapWidth val="219"/>
-        <overlap val="-27"/>
+        <gapWidth val="150"/>
+        <overlap val="-25"/>
         <axId val="481569808"/>
         <axId val="481570136"/>
       </barChart>
@@ -467,61 +601,51 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
+        <delete val="1"/>
         <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
         <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
         <crossAx val="481569808"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="t"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -547,14 +671,14 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>0</col>
-      <colOff>0</colOff>
+      <col>1</col>
+      <colOff>762000</colOff>
       <row>15</row>
       <rowOff>60960</rowOff>
     </from>
     <to>
-      <col>1</col>
-      <colOff>1112520</colOff>
+      <col>6</col>
+      <colOff>289560</colOff>
       <row>25</row>
       <rowOff>60960</rowOff>
     </to>
@@ -878,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:AW99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="21.6"/>
@@ -1034,10 +1158,8 @@
       <c r="E12" s="3" t="n">
         <v>12.95</v>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1056,10 +1178,8 @@
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14"/>
